--- a/concept/public/data/IN-KL.xlsx
+++ b/concept/public/data/IN-KL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,155 +461,145 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-1</t>
+          <t>RANK (R1)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 6</t>
+          <t>SCORE (R1)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-2</t>
+          <t>RANK (R2)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 8</t>
+          <t>SCORE (R2)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ROUND-3</t>
+          <t>RANK (R3)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 10</t>
+          <t>SCORE (R3)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Stary</t>
+          <t>RANK (Stray)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 12</t>
+          <t>SCORE (Stray)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 1</t>
+          <t>RANK (Special Stray)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 14</t>
+          <t>SCORE (Special Stray)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 2</t>
+          <t>RANK (Special Stray 2)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 16</t>
+          <t>SCORE (Special Stray 2)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Special Stray 3</t>
+          <t>RANK (Special Stray 3)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 18</t>
+          <t>SCORE (Special Stray 3)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thrissur, Kerala</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Jubilee Mission Med. Coll., Thrissur</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>₹8,16,038</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>15663</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20825</v>
+      </c>
+      <c r="I2" t="n">
+        <v>657</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21137</v>
+      </c>
+      <c r="K2" t="n">
+        <v>657</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>RANK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>SCORE</t>
+          <t>--</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>RANK</t>
+          <t>--</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>RANK</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>SCORE</t>
-        </is>
-      </c>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -618,7 +608,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jubilee Mission Med. Coll., Thrissur</t>
+          <t>Amala IMS, Thrissur</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -632,22 +622,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15663</v>
+        <v>22228</v>
       </c>
       <c r="G3" t="n">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="H3" t="n">
-        <v>20825</v>
+        <v>24800</v>
       </c>
       <c r="I3" t="n">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="J3" t="n">
-        <v>21137</v>
+        <v>25361</v>
       </c>
       <c r="K3" t="n">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -676,16 +666,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thrissur, Kerala</t>
+          <t>Kolenchery, Kerala</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Amala IMS, Thrissur</t>
+          <t>Malankara Orthodox Sy. Ch., Kolenchery</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -699,22 +689,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>22228</v>
+        <v>25432</v>
       </c>
       <c r="G4" t="n">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H4" t="n">
-        <v>24800</v>
+        <v>27900</v>
       </c>
       <c r="I4" t="n">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J4" t="n">
-        <v>25361</v>
+        <v>28623</v>
       </c>
       <c r="K4" t="n">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -743,16 +733,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kolenchery, Kerala</t>
+          <t>Thiruvalla, Kerala</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Malankara Orthodox Sy. Ch., Kolenchery</t>
+          <t>Pushpagiri IMS, Thiruvalla</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -766,19 +756,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25432</v>
+        <v>27236</v>
       </c>
       <c r="G5" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H5" t="n">
-        <v>27900</v>
+        <v>28586</v>
       </c>
       <c r="I5" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J5" t="n">
-        <v>28623</v>
+        <v>28876</v>
       </c>
       <c r="K5" t="n">
         <v>647</v>
@@ -810,16 +800,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thiruvalla, Kerala</t>
+          <t>Malappuram, Kerala</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pushpagiri IMS, Thiruvalla</t>
+          <t>MES Medical College, Malappuram</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -833,22 +823,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>27236</v>
+        <v>28683</v>
       </c>
       <c r="G6" t="n">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H6" t="n">
-        <v>28586</v>
+        <v>29764</v>
       </c>
       <c r="I6" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J6" t="n">
-        <v>28876</v>
+        <v>29764</v>
       </c>
       <c r="K6" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -877,16 +867,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Malappuram, Kerala</t>
+          <t>Thiruvalla, Kerala</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MES Medical College, Malappuram</t>
+          <t>Believers Church MC&amp;H, Thiruvalla</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -900,22 +890,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>28683</v>
+        <v>29138</v>
       </c>
       <c r="G7" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H7" t="n">
-        <v>29764</v>
+        <v>32082</v>
       </c>
       <c r="I7" t="n">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J7" t="n">
-        <v>29764</v>
+        <v>32260</v>
       </c>
       <c r="K7" t="n">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -944,16 +934,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Thiruvalla, Kerala</t>
+          <t>TVPM, Kerala</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Believers Church MC&amp;H, Thiruvalla</t>
+          <t>Sree Gokulam Med. coll, TVPM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -963,23 +953,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>₹8,16,038</t>
+          <t>₹7,71,595</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>29138</v>
+        <v>29591</v>
       </c>
       <c r="G8" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H8" t="n">
-        <v>32082</v>
+        <v>32042</v>
       </c>
       <c r="I8" t="n">
         <v>644</v>
       </c>
       <c r="J8" t="n">
-        <v>32260</v>
+        <v>32287</v>
       </c>
       <c r="K8" t="n">
         <v>643</v>
@@ -1011,16 +1001,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TVPM, Kerala</t>
+          <t>Kozhikode, Kerala</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sree Gokulam Med. coll, TVPM</t>
+          <t>KMCT Medical College, Kozhikode</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1030,36 +1020,32 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>₹7,71,595</t>
+          <t>₹8,07,324</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>29591</v>
+        <v>35051</v>
       </c>
       <c r="G9" t="n">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="H9" t="n">
-        <v>32042</v>
+        <v>46717</v>
       </c>
       <c r="I9" t="n">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="J9" t="n">
-        <v>32287</v>
+        <v>48002</v>
       </c>
       <c r="K9" t="n">
-        <v>643</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>627</v>
+      </c>
+      <c r="L9" t="n">
+        <v>28314</v>
+      </c>
+      <c r="M9" t="n">
+        <v>648</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1078,16 +1064,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kozhikode, Kerala</t>
+          <t>Thiruvananthapuram, Kerala</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>KMCT Medical College, Kozhikode</t>
+          <t>SUT Accademy, Thiruvananthapuram</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1097,32 +1083,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>₹8,07,324</t>
+          <t>₹7,76,504</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>35051</v>
+        <v>37766</v>
       </c>
       <c r="G10" t="n">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H10" t="n">
-        <v>46717</v>
+        <v>50696</v>
       </c>
       <c r="I10" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J10" t="n">
-        <v>48002</v>
+        <v>53526</v>
       </c>
       <c r="K10" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="L10" t="n">
-        <v>28314</v>
+        <v>32864</v>
       </c>
       <c r="M10" t="n">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1141,16 +1127,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thiruvananthapuram, Kerala</t>
+          <t>Karakonam, Kerala</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SUT Accademy, Thiruvananthapuram</t>
+          <t>Dr. Somervell Memorial, Karakonam</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1160,32 +1146,32 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>₹7,76,504</t>
+          <t>₹8,16,038</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>37766</v>
+        <v>38506</v>
       </c>
       <c r="G11" t="n">
         <v>637</v>
       </c>
       <c r="H11" t="n">
-        <v>50696</v>
+        <v>48094</v>
       </c>
       <c r="I11" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="J11" t="n">
-        <v>53526</v>
+        <v>50285</v>
       </c>
       <c r="K11" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="L11" t="n">
-        <v>32864</v>
+        <v>26019</v>
       </c>
       <c r="M11" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1204,16 +1190,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Karakonam, Kerala</t>
+          <t>Kozhikode, Kerala</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Dr. Somervell Memorial, Karakonam</t>
+          <t>Malabar MC &amp; H, Kozhikode</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1227,28 +1213,32 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>38506</v>
+        <v>38863</v>
       </c>
       <c r="G12" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H12" t="n">
-        <v>48094</v>
+        <v>40300</v>
       </c>
       <c r="I12" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="J12" t="n">
-        <v>50285</v>
+        <v>40695</v>
       </c>
       <c r="K12" t="n">
-        <v>625</v>
-      </c>
-      <c r="L12" t="n">
-        <v>26019</v>
-      </c>
-      <c r="M12" t="n">
-        <v>651</v>
+        <v>635</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1267,16 +1257,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kozhikode, Kerala</t>
+          <t>Kollam, Kerala</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Malabar MC &amp; H, Kozhikode</t>
+          <t>Travancore Med. Coll, Kollam</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1290,22 +1280,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>38863</v>
+        <v>40501</v>
       </c>
       <c r="G13" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H13" t="n">
-        <v>40300</v>
+        <v>42424</v>
       </c>
       <c r="I13" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J13" t="n">
-        <v>40695</v>
+        <v>43753</v>
       </c>
       <c r="K13" t="n">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1334,16 +1324,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kollam, Kerala</t>
+          <t>Ottapalam, Kerala</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Travancore Med. Coll, Kollam</t>
+          <t>P K Das IMS, Ottapalam</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1353,26 +1343,26 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>₹8,16,038</t>
+          <t>₹8,97,000</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40501</v>
+        <v>44686</v>
       </c>
       <c r="G14" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="H14" t="n">
-        <v>42424</v>
+        <v>51752</v>
       </c>
       <c r="I14" t="n">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="J14" t="n">
-        <v>43753</v>
+        <v>54289</v>
       </c>
       <c r="K14" t="n">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1401,16 +1391,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ottapalam, Kerala</t>
+          <t>Ernakulam, Kerala</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>P K Das IMS, Ottapalam</t>
+          <t>Sree Narayana IMSs, Ernakulam</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1420,36 +1410,32 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>₹8,97,000</t>
+          <t>₹8,49,961</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>44686</v>
+        <v>44829</v>
       </c>
       <c r="G15" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="H15" t="n">
-        <v>51752</v>
+        <v>53138</v>
       </c>
       <c r="I15" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J15" t="n">
-        <v>54289</v>
+        <v>54387</v>
       </c>
       <c r="K15" t="n">
         <v>621</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+      <c r="L15" t="n">
+        <v>35240</v>
+      </c>
+      <c r="M15" t="n">
+        <v>640</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1468,16 +1454,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ernakulam, Kerala</t>
+          <t>Kollam, Kerala</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sree Narayana IMSs, Ernakulam</t>
+          <t>Azeezia IMS, Kollam</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1487,32 +1473,36 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>₹8,49,961</t>
+          <t>₹8,16,038</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>44829</v>
+        <v>49211</v>
       </c>
       <c r="G16" t="n">
         <v>626</v>
       </c>
       <c r="H16" t="n">
-        <v>53138</v>
+        <v>57805</v>
       </c>
       <c r="I16" t="n">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="J16" t="n">
-        <v>54387</v>
+        <v>58043</v>
       </c>
       <c r="K16" t="n">
-        <v>621</v>
-      </c>
-      <c r="L16" t="n">
-        <v>35240</v>
-      </c>
-      <c r="M16" t="n">
-        <v>640</v>
+        <v>617</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,16 +1521,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kollam, Kerala</t>
+          <t>Palakkad, Kerala</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Azeezia IMS, Kollam</t>
+          <t>Karuna Medical College, Palakkad</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1550,26 +1540,26 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>₹8,16,038</t>
+          <t>₹7,87,780</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>49211</v>
+        <v>51330</v>
       </c>
       <c r="G17" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H17" t="n">
-        <v>57805</v>
+        <v>58043</v>
       </c>
       <c r="I17" t="n">
         <v>617</v>
       </c>
       <c r="J17" t="n">
-        <v>58043</v>
+        <v>65250</v>
       </c>
       <c r="K17" t="n">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1598,16 +1588,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Palakkad, Kerala</t>
+          <t>Wayanad, Kerala</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Karuna Medical College, Palakkad</t>
+          <t>Dr. Moopens Med. Coll, Wayanad</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1617,36 +1607,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>₹7,87,780</t>
+          <t>₹8,86,779</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>51330</v>
+        <v>51752</v>
       </c>
       <c r="G18" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H18" t="n">
-        <v>58043</v>
+        <v>58905</v>
       </c>
       <c r="I18" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J18" t="n">
-        <v>65250</v>
+        <v>59304</v>
       </c>
       <c r="K18" t="n">
-        <v>611</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>616</v>
+      </c>
+      <c r="L18" t="n">
+        <v>43576</v>
+      </c>
+      <c r="M18" t="n">
+        <v>631</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1665,16 +1651,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wayanad, Kerala</t>
+          <t>Pathanamthitta, Kerala</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dr. Moopens Med. Coll, Wayanad</t>
+          <t>Mount Zion Med. Coll, Pathanamthitta</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1684,42 +1670,38 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>₹8,86,779</t>
+          <t>₹8,09,939</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>51752</v>
+        <v>54075</v>
       </c>
       <c r="G19" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H19" t="n">
-        <v>58905</v>
+        <v>63202</v>
       </c>
       <c r="I19" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J19" t="n">
-        <v>59304</v>
+        <v>71510</v>
       </c>
       <c r="K19" t="n">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="L19" t="n">
-        <v>43576</v>
+        <v>62020</v>
       </c>
       <c r="M19" t="n">
-        <v>631</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+        <v>614</v>
+      </c>
+      <c r="N19" t="n">
+        <v>73056</v>
+      </c>
+      <c r="O19" t="n">
+        <v>604</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1728,16 +1710,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pathanamthitta, Kerala</t>
+          <t>Thodupuzha, Kerala</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mount Zion Med. Coll, Pathanamthitta</t>
+          <t>Al Azhar Medical college, Thodupuzha</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1747,38 +1729,38 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>₹8,09,939</t>
+          <t>₹8,16,038</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>54075</v>
+        <v>55951</v>
       </c>
       <c r="G20" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H20" t="n">
-        <v>63202</v>
+        <v>65663</v>
       </c>
       <c r="I20" t="n">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J20" t="n">
-        <v>71510</v>
+        <v>72724</v>
       </c>
       <c r="K20" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L20" t="n">
-        <v>62020</v>
+        <v>72764</v>
       </c>
       <c r="M20" t="n">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="N20" t="n">
-        <v>73056</v>
+        <v>75582</v>
       </c>
       <c r="O20" t="n">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1787,16 +1769,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Thodupuzha, Kerala</t>
+          <t>Walayar, Kerala</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Al Azhar Medical college, Thodupuzha</t>
+          <t>Palakkad IMSs, Walayar</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1806,38 +1788,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>₹8,16,038</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>55951</v>
-      </c>
-      <c r="G21" t="n">
-        <v>619</v>
+          <t>₹8,98,800</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>65663</v>
+        <v>48131</v>
       </c>
       <c r="I21" t="n">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="J21" t="n">
-        <v>72724</v>
+        <v>67353</v>
       </c>
       <c r="K21" t="n">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="L21" t="n">
-        <v>72764</v>
+        <v>68621</v>
       </c>
       <c r="M21" t="n">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="N21" t="n">
-        <v>75582</v>
+        <v>63757</v>
       </c>
       <c r="O21" t="n">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1846,16 +1832,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Walayar, Kerala</t>
+          <t>Kannur, Kerala</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Palakkad IMSs, Walayar</t>
+          <t>Kannur Medical College, Kannur</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1865,138 +1851,75 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>₹8,98,800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>48131</v>
-      </c>
-      <c r="I22" t="n">
-        <v>627</v>
-      </c>
-      <c r="J22" t="n">
-        <v>67353</v>
-      </c>
-      <c r="K22" t="n">
-        <v>609</v>
-      </c>
-      <c r="L22" t="n">
-        <v>68621</v>
-      </c>
-      <c r="M22" t="n">
-        <v>608</v>
-      </c>
-      <c r="N22" t="n">
-        <v>63757</v>
-      </c>
-      <c r="O22" t="n">
-        <v>612</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Kannur, Kerala</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Kannur Medical College, Kannur</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>OPEN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
